--- a/Hypohetical_HighLevel_Load_Anticipation.xlsx
+++ b/Hypohetical_HighLevel_Load_Anticipation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garg-Family\Desktop\worQference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81483295-58CE-4E84-ADF0-C8404C442002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC26DE3-23EB-4CA3-93E2-8DB9AB789A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7270" xr2:uid="{BDB3DA71-9C30-4857-AB39-6AFD435227C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BDB3DA71-9C30-4857-AB39-6AFD435227C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Anticipation" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Average Load</t>
   </si>
@@ -57,6 +58,39 @@
   </si>
   <si>
     <t>2000+</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>1 Hours</t>
+  </si>
+  <si>
+    <t>6 Hours</t>
+  </si>
+  <si>
+    <t>Data is coming from?</t>
+  </si>
+  <si>
+    <t>Historical Facts</t>
+  </si>
+  <si>
+    <t>Requirements Discussions</t>
+  </si>
+  <si>
+    <t>Competitor Analysis</t>
+  </si>
+  <si>
+    <t>User Interviews</t>
+  </si>
+  <si>
+    <t>Internal and Client</t>
+  </si>
+  <si>
+    <t>Standards?</t>
   </si>
 </sst>
 </file>
@@ -80,15 +114,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,11 +151,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -126,6 +177,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,20 +499,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292F8619-C82F-4B81-83C7-8FB6E104E156}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -461,8 +520,11 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,8 +534,11 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -483,8 +548,11 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -493,10 +561,70 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659D7A6F-2A0E-400B-B9D5-99DEACBF0598}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>